--- a/Samples/Students.xlsx
+++ b/Samples/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paveltesemnikov/Desktop/Work/Teaching/MMF/Classic/Матстат/2023/rz_matstat/Samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{414455B8-67FD-E144-AC60-A0B8B38CD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41B3A3-C1C6-7347-9F9F-D954CCD81E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520" xr2:uid="{025C868B-13C6-E042-82DC-9F773B1BC936}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>№</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ФИО</t>
   </si>
@@ -460,117 +457,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207575A5-DA7B-AF4E-9D38-DCDAF3782DDB}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
